--- a/public/example/Template_Question_Bank_Import.xlsx
+++ b/public/example/Template_Question_Bank_Import.xlsx
@@ -1,39 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28409"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{88F96201-9FA3-4487-B463-E5B6CA29EE2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12525"/>
   </bookViews>
   <sheets>
     <sheet name="Pilihan Ganda" sheetId="1" r:id="rId1"/>
     <sheet name="Pilihan Ganda Kompleks" sheetId="2" r:id="rId2"/>
     <sheet name="Benar Salah" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
   <si>
     <t>No</t>
   </si>
@@ -44,7 +27,7 @@
     <t>Pertanyaan</t>
   </si>
   <si>
-    <t>Jawaban Benar</t>
+    <t>Kolom Jawaban Benar</t>
   </si>
   <si>
     <t>Pilihan Jawaban 1</t>
@@ -59,12 +42,12 @@
     <t>Pilihan Jawaban 4</t>
   </si>
   <si>
+    <t>Pilihan Jawaban 5</t>
+  </si>
+  <si>
     <t>Tentukan berapa hasil penjumlahan dan pengurangan dari bilangan di bawah ini.</t>
   </si>
   <si>
-    <t>x1 + x2</t>
-  </si>
-  <si>
     <t>x1 – x2</t>
   </si>
   <si>
@@ -74,27 +57,27 @@
     <t>x1 – x4</t>
   </si>
   <si>
+    <t>x1 - xbenar</t>
+  </si>
+  <si>
     <t>Dayu berangkat ke sekolah dengan sepeda berkecepatan 20km/jam Jarak Dayu ke sekolah 5 km. Waktu yang dibutuhkan Dayu untuk sampai sekolah adalah...</t>
   </si>
   <si>
+    <t>10 Menit</t>
+  </si>
+  <si>
+    <t>18 Menit</t>
+  </si>
+  <si>
     <t>15 Menit</t>
   </si>
   <si>
-    <t>10 Menit</t>
-  </si>
-  <si>
-    <t>18 Menit</t>
-  </si>
-  <si>
     <t>Sebuah parabola memiliki titik puncak (3,−4) dan melalui titik (1,2). Persamaan kuadrat yang merepresentasikan parabola ini adalah:</t>
   </si>
   <si>
     <t>Manakah diantara pada titik koordinat cartesius yang merupakan titik pusat dari persegi</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>D</t>
   </si>
   <si>
@@ -107,52 +90,49 @@
     <t>Semua Salah</t>
   </si>
   <si>
+    <t>Enam orang pekerja akan membuat gudang dalam waktu tiga bulan. Pemilik gudang meminta agar dalam waktu dua bulan gudang sudah selesai.</t>
+  </si>
+  <si>
+    <t>1 &amp; 3 &amp; 5</t>
+  </si>
+  <si>
+    <t>9 pekerja diperlukan untuk membuat gudang.</t>
+  </si>
+  <si>
+    <t>10 pekerja diperlukan untuk membuat gudang.</t>
+  </si>
+  <si>
+    <t>3 pekerja tambahan diperlukan untuk membuat gudang.</t>
+  </si>
+  <si>
+    <t>4 pekerja tambahan diperlukan untuk membuat gudang.</t>
+  </si>
+  <si>
+    <t>Soal termasuk perbandingan berbalik nilai.</t>
+  </si>
+  <si>
+    <t>Ella akan meminjam uang Rp 6.000.000,- di bank SUKSES dengan bunga 24%/tahun. Ella berencana mengembalikan pinjaman dengan cara mengangsur selama 6 bulan.</t>
+  </si>
+  <si>
+    <t>2 &amp; 5</t>
+  </si>
+  <si>
+    <t>Besar bunga yang dikenakan pada Ella adalah 20%.</t>
+  </si>
+  <si>
+    <t>Besar bunga yang dikenakan pada Ella adalah 12%.</t>
+  </si>
+  <si>
+    <t>Besar angsuran setiap bulannya Rp 1.360.000,-</t>
+  </si>
+  <si>
+    <t>Besar angsuran setiap bulannya Rp 1.240.000,-</t>
+  </si>
+  <si>
+    <t>Besar angsuran setiap bulannya Rp 1.120.000,-</t>
+  </si>
+  <si>
     <t>Jawaban</t>
-  </si>
-  <si>
-    <t>Pilihan Jawaban 5</t>
-  </si>
-  <si>
-    <t>Enam orang pekerja akan membuat gudang dalam waktu tiga bulan. Pemilik gudang meminta agar dalam waktu dua bulan gudang sudah selesai.</t>
-  </si>
-  <si>
-    <t>1 &amp; 3 &amp; 5</t>
-  </si>
-  <si>
-    <t>9 pekerja diperlukan untuk membuat gudang.</t>
-  </si>
-  <si>
-    <t>10 pekerja diperlukan untuk membuat gudang.</t>
-  </si>
-  <si>
-    <t>3 pekerja tambahan diperlukan untuk membuat gudang.</t>
-  </si>
-  <si>
-    <t>4 pekerja tambahan diperlukan untuk membuat gudang.</t>
-  </si>
-  <si>
-    <t>Soal termasuk perbandingan berbalik nilai.</t>
-  </si>
-  <si>
-    <t>Ella akan meminjam uang Rp 6.000.000,- di bank SUKSES dengan bunga 24%/tahun. Ella berencana mengembalikan pinjaman dengan cara mengangsur selama 6 bulan.</t>
-  </si>
-  <si>
-    <t>2 &amp; 5</t>
-  </si>
-  <si>
-    <t>Besar bunga yang dikenakan pada Ella adalah 20%.</t>
-  </si>
-  <si>
-    <t>Besar bunga yang dikenakan pada Ella adalah 12%.</t>
-  </si>
-  <si>
-    <t>Besar angsuran setiap bulannya Rp 1.360.000,-</t>
-  </si>
-  <si>
-    <t>Besar angsuran setiap bulannya Rp 1.240.000,-</t>
-  </si>
-  <si>
-    <t>Besar angsuran setiap bulannya Rp 1.120.000,-</t>
   </si>
   <si>
     <t>Kalimat "Ibu pergi ke pasar untuk membeli sayuran" termasuk dalam kalimat tunggal.</t>
@@ -173,40 +153,45 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-    </font>
-    <font>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF374151"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF111827"/>
-      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -216,11 +201,169 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF333333"/>
+      <color rgb="FF374151"/>
       <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF111827"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -229,18 +372,204 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -263,99 +592,432 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>293370</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>485775</xdr:rowOff>
+      <xdr:rowOff>495300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2009775</xdr:colOff>
+      <xdr:colOff>2303145</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>838200</xdr:rowOff>
+      <xdr:rowOff>847725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Gambar 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76A03703-43F8-D371-12EA-963340CE3A00}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="Gambar 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="323850" y="676275"/>
+          <a:off x="1680210" y="704850"/>
           <a:ext cx="2009775" cy="352425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -380,29 +1042,20 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Gambar 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA9EC340-B2F5-BA45-8D52-29F5014A1A2C}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{76A03703-43F8-D371-12EA-963340CE3A00}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="5" name="Gambar 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5591175" y="1838325"/>
+          <a:off x="9576435" y="1524000"/>
           <a:ext cx="2247900" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -427,76 +1080,20 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Gambar 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4461C169-D032-C392-DC19-67F52B9486AF}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{CA9EC340-B2F5-BA45-8D52-29F5014A1A2C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="6" name="Gambar 5"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7943850" y="1857375"/>
-          <a:ext cx="2247900" cy="333375"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2276475</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>438150</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Gambar 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9F9A679-6420-A0D4-2CDC-F0E7D3D4CB10}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{4461C169-D032-C392-DC19-67F52B9486AF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3276600" y="1876425"/>
+          <a:off x="14584680" y="1543050"/>
           <a:ext cx="2247900" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -521,29 +1118,20 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Gambar 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{062F346E-1E4A-FD18-769D-C7A3890A8024}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{E9F9A679-6420-A0D4-2CDC-F0E7D3D4CB10}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="8" name="Gambar 7"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10267950" y="1828800"/>
+          <a:off x="19564350" y="1514475"/>
           <a:ext cx="2247900" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -568,29 +1156,20 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Gambar 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08EC4AE7-1579-CF22-D701-3023351A491C}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{062F346E-1E4A-FD18-769D-C7A3890A8024}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="9" name="Gambar 8"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12601575" y="1819275"/>
+          <a:off x="24553545" y="1504950"/>
           <a:ext cx="2247900" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -615,29 +1194,20 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Gambar 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4F4EDC9-908D-37AD-3316-86A1DBFAF18B}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{08EC4AE7-1579-CF22-D701-3023351A491C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="10" name="Gambar 9"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="342900" y="2409825"/>
+          <a:off x="1405890" y="2159000"/>
           <a:ext cx="2752725" cy="1333500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -693,7 +1263,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -726,26 +1296,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Aptos Narrow"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -778,23 +1331,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -956,339 +1492,351 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="2" width="4.85546875" style="12" customWidth="1"/>
-    <col min="3" max="3" width="43.85546875" style="12" customWidth="1"/>
-    <col min="4" max="8" width="34.85546875" style="12" customWidth="1"/>
+    <col min="1" max="2" width="4.85333333333333" style="9" customWidth="1"/>
+    <col min="3" max="3" width="43.8533333333333" style="9" customWidth="1"/>
+    <col min="4" max="4" width="13.3333333333333" style="9" customWidth="1"/>
+    <col min="5" max="7" width="34.8533333333333" style="9" customWidth="1"/>
+    <col min="8" max="8" width="34.6666666666667" style="10" customWidth="1"/>
+    <col min="9" max="9" width="34.6666666666667" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="19" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" ht="68.25" customHeight="1">
-      <c r="A2" s="3">
+    <row r="2" ht="68.25" customHeight="1" spans="1:8">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="13">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="5"/>
+      <c r="H2" s="18" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" ht="56.25">
-      <c r="A3" s="3">
+    <row r="3" ht="30" spans="1:8">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="C3" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="D3" s="13">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
+      <c r="G3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="18"/>
     </row>
-    <row r="4" spans="1:8" ht="42">
-      <c r="A4" s="3">
+    <row r="4" ht="47" customHeight="1" spans="1:8">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
+      <c r="C4" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="13">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="18"/>
     </row>
-    <row r="5" spans="1:8" ht="146.25" customHeight="1">
-      <c r="A5" s="12">
+    <row r="5" ht="146.25" customHeight="1" spans="1:8">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="9">
         <v>1</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="12" t="s">
+      <c r="C5" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="D5" s="17">
+        <v>1</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="10" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AC948FC-61C1-4459-9D0B-C0BA47D1D642}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="2" width="4.85546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="47.42578125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" style="5" customWidth="1"/>
-    <col min="5" max="7" width="27.5703125" style="5" customWidth="1"/>
-    <col min="8" max="9" width="28" style="5" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="2" width="4.85333333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="47.4266666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.8533333333333" style="1" customWidth="1"/>
+    <col min="5" max="7" width="27.5688888888889" style="1" customWidth="1"/>
+    <col min="8" max="9" width="28" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.14222222222222" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" ht="30" spans="1:9">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" ht="56.25">
-      <c r="A2" s="3">
+    <row r="3" ht="39" spans="1:9">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
-        <v>1</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="D3" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="66.75">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="8" t="s">
+      <c r="E3" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="F3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="H3" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="I3" s="8" t="s">
         <v>37</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E62B0171-7F2F-44D0-9B16-665F66A02D78}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="2" width="6.42578125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="57.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="2" width="6.42666666666667" style="1" customWidth="1"/>
+    <col min="3" max="3" width="57.7111111111111" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.2844444444444" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9.14222222222222" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>24</v>
+      <c r="D1" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="28.5">
-      <c r="A2" s="3">
+    <row r="2" spans="1:4">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>41</v>
       </c>
+      <c r="D3" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" ht="28.5">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3">
+    <row r="4" spans="1:4">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C4" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="28.5">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{9C711863-0CD7-49EA-8F07-FE9E8BF4F7E8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
       <formula1>"Benar, Salah"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1" xr:uid="{BFB8F608-4AF7-40B4-B2F4-8225D0A16286}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>